--- a/similarities/split_global/harmonic_similarity_timestamps_60.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_60.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_83</t>
+          <t>schubert-winterreise_185</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:7', 'D:7', 'G']]</t>
+          <t>['B:min', 'F#:maj', 'B:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['F#:7', 'B:7', 'E:7', 'A']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:23.810000', '0:00:30.780000')]</t>
+          <t>('0:00:13.740000', '0:00:22.560000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:21.612539', '0:00:29.751133')]</t>
+          <t>('0:00:14.620000', '0:00:22.040000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-83#t=23.81']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-92#t=21.612539']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
+          <t>schubert-winterreise_188</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'G/3', 'C']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000')]</t>
+          <t>('0:00:12.280000', '0:00:19.740000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:41.655000', '0:00:46.220000')]</t>
+          <t>('0:00:01.180000', '0:00:06.140000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=12.28</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-21#t=41.655']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-188#t=1.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_258</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_9</t>
+          <t>schubert-winterreise_164</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['E:min', 'A:min', 'E:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:7', 'F']]</t>
+          <t>['A:min', 'D:min', 'A:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:56.880000')]</t>
+          <t>('0:00:00.506000', '0:00:08.175000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:50.360000', '0:00:57.040000')]</t>
+          <t>('0:00:10.440000', '0:00:22.520000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-258#t=0.506</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-9#t=50.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-164#t=10.44</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_183</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_58</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb:min7', 'Eb:7', 'Ab:7', 'Ab:maj6'], ['F:7', 'Bb:min7', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min7', 'Bb:7', 'Eb:7', 'Eb:maj6/3'], ['C:7', 'F:min7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:21.900000', '0:00:25.170000'), ('0:00:15.930000', '0:00:21.360000')]</t>
+          <t>('0:02:08.540000', '0:02:13.900000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:02.680000', '0:00:04.360000'), ('0:00:00.590000', '0:00:02.260000')]</t>
+          <t>('0:00:14.450219', '0:00:23.088042')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=21.9', 'https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=15.93']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=2.68', 'https://soundcloud.com/jacopo-de-berardinis/jaah-58#t=0.59']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=14.450219</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_200</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:min', 'F#:maj/A#', 'B:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:13.420000', '0:00:19.500000')]</t>
+          <t>('0:01:21.280000', '0:01:29.420000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:20.220000', '0:01:27.220000')]</t>
+          <t>('0:00:11.160000', '0:00:16.300000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=13.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=80.22']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=11.16</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_259</t>
+          <t>jaah_13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_235</t>
+          <t>jaah_25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'E']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['Bb', 'Eb', 'F']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:47.187000', '0:00:57.707000')]</t>
+          <t>('0:00:06.590000', '0:00:14.660000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:55.589104', '0:01:06.734682')]</t>
+          <t>('0:00:50.130000', '0:00:59.490000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-259#t=47.187']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-13#t=6.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-235#t=55.589104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-25#t=50.13</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_111</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>isophonics_57</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:7', 'G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['D:7', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:00:15', '0:00:22.400000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:39.445827', '0:01:45.343696')]</t>
+          <t>('0:00:57.401473', '0:01:02.625963')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=15.0</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=99.445827']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_215</t>
+          <t>jaah_51</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>jaah_26</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['A:min7', 'D:7', 'D:min7', 'G:7', 'C:maj7']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['E:min7', 'A:7', 'A:min7', 'D:7', 'G:maj7']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:15.780000', '0:00:21.280000')]</t>
+          <t>('0:00:24.910000', '0:00:31.040000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:17.780000', '0:00:25.400000')]</t>
+          <t>('0:00:50.680000', '0:00:59.090000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-51#t=24.91</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=17.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-26#t=50.68</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_221</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A#:min', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C', 'F/5', 'C']]</t>
+          <t>['C:min/G', 'G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:23.580000', '0:02:28.160000')]</t>
+          <t>('0:00:06.800000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:05.121000', '0:00:12.601000')]</t>
+          <t>('0:00:01.420000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=6.8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=1.42</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>isophonics_41</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G', 'C', 'F']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:maj', 'C:7', 'F:maj'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['F:maj/A', 'A#:maj/D', 'D#:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:13.720000', '0:00:20.760000'), ('0:04:11.500000', '0:04:17.660000'), ('0:00:24.180000', '0:00:30.020000')]</t>
+          <t>('0:00:56.279931', '0:01:00.633673')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:05.080000'), ('0:00:43.340000', '0:00:59.340000'), ('0:00:08.460000', '0:00:13.460000')]</t>
+          <t>('0:03:54.420000', '0:03:57.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=13.72', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=24.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-41#t=56.279931</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=43.34', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=8.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=234.42</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_72</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_66</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['F:maj', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:00.380000', '0:00:08.900000')]</t>
+          <t>('0:00:39.180000', '0:00:53.360000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:06.930000', '0:01:23.820000')]</t>
+          <t>('0:04:22.920000', '0:04:29.360000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=0.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=39.18</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=66.93']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-66#t=262.92</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_177</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7']]</t>
+          <t>['A:min', 'E:maj', 'A:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'G:7']]</t>
+          <t>['C:min/G', 'G', 'C:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:12.420000', '0:00:19.660000')]</t>
+          <t>('0:00:13.500000', '0:00:21.900000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:12.560000', '0:00:19.540000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-68#t=12.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=13.5</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=12.56</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>schubert-winterreise_192</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_93</t>
-        </is>
-      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C:hdim7/D#', 'F:7', 'A#:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:24.240000', '0:00:30.960000')]</t>
+          <t>('0:00:23.140000', '0:00:30.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:14.580000', '0:00:21.140000')]</t>
+          <t>('0:00:25.620000', '0:00:33.760000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=23.14</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-93#t=14.58']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=25.62</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_9</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'C']]</t>
+          <t>['D#:min', 'A#:maj', 'D#:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'A']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:29.304000', '0:00:37.317000')]</t>
+          <t>('0:00:00.780000', '0:00:05.980000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:32.357530', '0:00:36.246873')]</t>
+          <t>('0:00:01', '0:00:05.360000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=29.304']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-9#t=32.35753']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=1.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_36</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_38</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
+          <t>['A:hdim7/D#', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['F:hdim7/G#', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:04:05.420000', '0:04:23.440000')]</t>
+          <t>('0:01:48.980000', '0:02:02.260000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
+          <t>('0:00:23.840000', '0:00:31.400000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=245.42']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=108.98</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=21.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=23.84</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
